--- a/annotations/paris_20240724_172753.xlsx
+++ b/annotations/paris_20240724_172753.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,57 @@
           <t>issue_type</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1269f1fb-9c21-42a9-ae5e-c80f92622adc</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Bk6qQGWRb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Then how bootstrap dqn extend the idea to deep learning, followed by the noisy net, bbq, shallow UBE and LS-DQN.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/annotations/paris_20240724_172753.xlsx
+++ b/annotations/paris_20240724_172753.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,42 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c8048836-24fe-4e27-95aa-c7cfb58ac155</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>rkc_hGb0Z_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>The structure of the global policies used in the experiments should be mentioned somewhere.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/annotations/paris_20240724_172753.xlsx
+++ b/annotations/paris_20240724_172753.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,42 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>53dcf950-aee9-43ba-bb93-9e7c5cd5833d</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>By5SY2gA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>For instance, what about averaging WordNet path-based distance metrics and distance in word embedding space (for word similarity), and other ways of applying the affect data to email tone prediction?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/annotations/paris_20240724_172753.xlsx
+++ b/annotations/paris_20240724_172753.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,42 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>42be9703-0e9b-4ce8-962d-60bf1f233ce8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SJCPLLpaW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The results show that DeePa achieves speedups compared to PyTorch and TensorFlow with all of the tested minibatch sizes.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/annotations/paris_20240724_172753.xlsx
+++ b/annotations/paris_20240724_172753.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,42 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>dc9804e9-fe90-49ab-88bb-ac97478c1b97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>i87JIQTAnB8AQ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>As you suggested, I did run comparison tests and I will present the results here.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/annotations/paris_20240724_172753.xlsx
+++ b/annotations/paris_20240724_172753.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,34 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dc9804e9-fe90-49ab-88bb-ac97478c1b97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>i87JIQTAnB8AQ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>As you suggested, I did run comparison tests and I will present the results here.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
